--- a/biology/Botanique/Michel_Adam_(obtenteur_de_rose)/Michel_Adam_(obtenteur_de_rose).xlsx
+++ b/biology/Botanique/Michel_Adam_(obtenteur_de_rose)/Michel_Adam_(obtenteur_de_rose).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Michel Adam est un rosiériste français dont les pépinières sont situées à Liffré.
 </t>
@@ -511,37 +523,39 @@
           <t>Roses primées</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1990
-Concours international de roses nouvelles de Bagatelle : prix du parfum pour ‘Parfum d’Armor’[1].
+Concours international de roses nouvelles de Bagatelle : prix du parfum pour ‘Parfum d’Armor’.
 1991
-Concours de Lyon : Plus belle rose de France pour ‘Le Grand Huit’[2].
+Concours de Lyon : Plus belle rose de France pour ‘Le Grand Huit’.
 1992
 Concours de Lyon : Prix Prestige de la Rose pour une variété non dénommée.
 1993
-Concours international de roses nouvelles de Bagatelle : ‘Rose de Rennes’ (Cert n° 1) et ‘Parfum Lifféen’ (prix du parfum)[1]
-Concours de Lyon : prix Grande rose du siècle pour une variété non dénommée (ADApoman) et pour ‘Santiago’[2].
+Concours international de roses nouvelles de Bagatelle : ‘Rose de Rennes’ (Cert n° 1) et ‘Parfum Lifféen’ (prix du parfum)
+Concours de Lyon : prix Grande rose du siècle pour une variété non dénommée (ADApoman) et pour ‘Santiago’.
 1994
-Concours de Lyon : prix Grande rose du siècle pour une variété non dénommée[2].
+Concours de Lyon : prix Grande rose du siècle pour une variété non dénommée.
 1995
-Prix de la rose AJJH avec la ‘Rose de Rennes’[3].
-Concours de Lyon : prix Grande rose du siècle pour une variété non dénommée (ADAhuro) et pour ‘Orange Adam’[2].
+Prix de la rose AJJH avec la ‘Rose de Rennes’.
+Concours de Lyon : prix Grande rose du siècle pour une variété non dénommée (ADAhuro) et pour ‘Orange Adam’.
 1996
-Concours de Lyon : prix Plus belle rose de France (Médaille d'or) pour ‘Rose d'or de Montreux’ et prix Grande rose du siècle pour ‘Rouge Adam’[2].:1997
-Concours de Lyon : Prix Prestige de la Rose pour une variété non dénommée (ADAsilli)[2].
+Concours de Lyon : prix Plus belle rose de France (Médaille d'or) pour ‘Rose d'or de Montreux’ et prix Grande rose du siècle pour ‘Rouge Adam’.:1997
+Concours de Lyon : Prix Prestige de la Rose pour une variété non dénommée (ADAsilli).
 2000
-Prix de la rose AJJH avec la rose ‘Isabelle Autissier’[3].
+Prix de la rose AJJH avec la rose ‘Isabelle Autissier’.
 2001
-Concours international de la rose nouvelle de Monza : Médaille d'or avec ‘Fanny Ardant’ dans la catégorie Hybride de Thé[4].
+Concours international de la rose nouvelle de Monza : Médaille d'or avec ‘Fanny Ardant’ dans la catégorie Hybride de Thé.
 2002
-Concours international de la rose nouvelle de Monza : Rosa dei Giornalisti (Médaille d'argent) avec ‘Reflet de Saint-Malo’[4].
+Concours international de la rose nouvelle de Monza : Rosa dei Giornalisti (Médaille d'argent) avec ‘Reflet de Saint-Malo’.
 2003
-Concours international de roses remontantes : Certificat de mérite dans la catégorie Buisson Grandes Fleurs pour la rose ‘Brocéliande’[5].
-Concours international de la rose nouvelle de Monza : Médaille d'or de la catégorie « Shrub, Climber, Groud cover, Miniature » avec une variété non dénommée (ADAromaq)[4].
+Concours international de roses remontantes : Certificat de mérite dans la catégorie Buisson Grandes Fleurs pour la rose ‘Brocéliande’.
+Concours international de la rose nouvelle de Monza : Médaille d'or de la catégorie « Shrub, Climber, Groud cover, Miniature » avec une variété non dénommée (ADAromaq).
 2004
-Concours international de roses remontantes : Médaille de la ville d'Orléans pour ADAfunhu, rosier buisson à grandes fleurs aux nombreux pétales[6].
-Concours international de la rose nouvelle de Monza : Médaille d'argent ex-aequo de la catégorie « Shrub, Climber, Groud cover, Miniature » avec une variété non dénommée (ADApolred)[4].
+Concours international de roses remontantes : Médaille de la ville d'Orléans pour ADAfunhu, rosier buisson à grandes fleurs aux nombreux pétales.
+Concours international de la rose nouvelle de Monza : Médaille d'argent ex-aequo de la catégorie « Shrub, Climber, Groud cover, Miniature » avec une variété non dénommée (ADApolred).
 2005
 Concours Monza : deux médailles d'argent pour des roses non dénommées (ADAbicpoint et ADAcocenpa).
 Concours international de roses nouvelles de Bagatelle : 1er prix pour les roses de paysage (ADAcocenpa) et le prix « Coup de cœur » du concours des enfants (ADAbicpoint).</t>
